--- a/data/trans_camb/P1418-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1418-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-1.858785040125165</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.7431541008786235</v>
+        <v>-0.7431541008786229</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.473191553228304</v>
@@ -664,7 +664,7 @@
         <v>-1.30636222529908</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.1402347564010073</v>
+        <v>0.1402347564010087</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.506196931107867</v>
+        <v>-4.418611326489021</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.999746373575717</v>
+        <v>-4.061514297825047</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.004482411061396</v>
+        <v>-2.943230801231177</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.585433844505062</v>
+        <v>-1.953519371672016</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.881590054330746</v>
+        <v>-3.885089180668369</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.964114802461707</v>
+        <v>-1.852202660385224</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.279555290370577</v>
+        <v>-2.282458262212317</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.139404323013159</v>
+        <v>-3.246889582797773</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.933749499846952</v>
+        <v>-1.614296305074484</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.1085079785525739</v>
+        <v>-0.2032551776359181</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1317104629968222</v>
+        <v>0.2178754613552473</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.431483018946323</v>
+        <v>1.411990084949828</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.742346400907691</v>
+        <v>4.488344432674761</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.193138851488005</v>
+        <v>2.382221834362314</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.67049222236091</v>
+        <v>3.422025828285433</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.529510299125583</v>
+        <v>1.438831937257711</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6056057327910863</v>
+        <v>0.5471275115058253</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.800007954504127</v>
+        <v>1.802152903452823</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.3540052604620627</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1415335584082773</v>
+        <v>-0.1415335584082772</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.17197754740688</v>
@@ -769,7 +769,7 @@
         <v>-0.1892821157112852</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.02031896733829881</v>
+        <v>0.02031896733829901</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.6913442506250049</v>
+        <v>-0.6712284711293366</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6148966292336339</v>
+        <v>-0.6183370798069083</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4592643379587415</v>
+        <v>-0.4584199850714513</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.170307067753601</v>
+        <v>-0.1933278847697945</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3836505151795735</v>
+        <v>-0.3989059023178274</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1812491243319682</v>
+        <v>-0.176441128697583</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2946425386790513</v>
+        <v>-0.2895823700876952</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3930137674488691</v>
+        <v>-0.4094241462729638</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2374402114198931</v>
+        <v>-0.1990790194072022</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.02239429363016978</v>
+        <v>-0.02105605304569381</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.06312583628987609</v>
+        <v>0.07535682160176983</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3673350999834349</v>
+        <v>0.3503296865577918</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.656100631780088</v>
+        <v>0.6140311500209922</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2953238555431617</v>
+        <v>0.3229292220328998</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5370639024036166</v>
+        <v>0.5072292191644799</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2495169981928525</v>
+        <v>0.2491929362401472</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1037890022054898</v>
+        <v>0.08952658390650665</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3069557206408826</v>
+        <v>0.3067728229561659</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-3.379987979345983</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-1.23774638174699</v>
+        <v>-1.237746381746989</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.6836018929693793</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.002140056328853</v>
+        <v>-3.813621431958322</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.071019216972489</v>
+        <v>-5.122318133469225</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.788754362273548</v>
+        <v>-3.580811103754753</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.026310937847753</v>
+        <v>-2.246520214962856</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.876214470068334</v>
+        <v>-6.046044435360791</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.760411429428268</v>
+        <v>-3.70987356549224</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.328020208341097</v>
+        <v>-2.309769036445394</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.786439987783013</v>
+        <v>-4.778624250870214</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.036518892291183</v>
+        <v>-2.867380501838223</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.2729286074817208</v>
+        <v>-0.02336090040876497</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.576890147234849</v>
+        <v>-1.364617677241666</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.09464448201490445</v>
+        <v>0.087444197406225</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.442188528835535</v>
+        <v>2.938772703377361</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.7851796259289957</v>
+        <v>-1.085366476177677</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.098419179866358</v>
+        <v>1.226586565032428</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.032996927531677</v>
+        <v>0.9086711613194104</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.842954541586694</v>
+        <v>-1.752289926978561</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.0138371216288194</v>
+        <v>0.07454931262894746</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.3499834102801124</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.128163384719937</v>
+        <v>-0.1281633847199368</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.08927746844342691</v>
@@ -983,7 +983,7 @@
         <v>-0.4307898174238859</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.190529768203527</v>
+        <v>-0.1905297682035269</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5975825185039164</v>
+        <v>-0.5783488504972338</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7465110928184032</v>
+        <v>-0.7320015429204324</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.530991225710253</v>
+        <v>-0.5231942709044312</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1847866805335597</v>
+        <v>-0.2075208342671047</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5262458658267976</v>
+        <v>-0.534553808291035</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3325721152442996</v>
+        <v>-0.3321820325662378</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2752239937129792</v>
+        <v>-0.2665493717193371</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5628196425628936</v>
+        <v>-0.5501560360308574</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3455965962221416</v>
+        <v>-0.3354187219344663</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.04349081257087908</v>
+        <v>0.002567686313073167</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.3277951151627639</v>
+        <v>-0.2941237872460686</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.0001370190883958436</v>
+        <v>0.01347581537677987</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4197547500899682</v>
+        <v>0.3442572872295493</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.08564699294242467</v>
+        <v>-0.1267143336913812</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1454302967999714</v>
+        <v>0.1542410224764586</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1551034110465145</v>
+        <v>0.1330677973001367</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2606359886412802</v>
+        <v>-0.2477110691302033</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.0002562125864947315</v>
+        <v>0.01128461096660507</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-2.891082682676526</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.7492661670420522</v>
+        <v>-0.7492661670420515</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-3.585458979827325</v>
@@ -1083,7 +1083,7 @@
         <v>-3.83176977680377</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-3.183405162046156</v>
+        <v>-3.183405162046153</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-2.790868468552836</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.294088878370426</v>
+        <v>-4.250040461334562</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.966690707239936</v>
+        <v>-5.037898958303458</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.096312418637874</v>
+        <v>-3.027197003969249</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.763093044038575</v>
+        <v>-6.562054886398226</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.764442652916959</v>
+        <v>-6.886452465720108</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-6.070788093719138</v>
+        <v>-6.173744112087992</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.764936561246472</v>
+        <v>-4.871063313592574</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-5.277476412704658</v>
+        <v>-5.256916671990025</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.791254756776266</v>
+        <v>-3.939638001318737</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0170775637133003</v>
+        <v>0.1734337442941407</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.9150992492906818</v>
+        <v>-0.9560112437123541</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.306957158102983</v>
+        <v>1.559067333975108</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.5726704081666615</v>
+        <v>-0.5504665904651931</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.7529378439519399</v>
+        <v>-0.5857408115289501</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.167980088191643</v>
+        <v>-0.2544197457283597</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.752370785296699</v>
+        <v>-0.8168676833852112</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-1.506972456740005</v>
+        <v>-1.312829165385358</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.03940963506963673</v>
+        <v>-0.1658419893421001</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.556616720322536</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.144255326575953</v>
+        <v>-0.1442553265759528</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.3154192631396259</v>
@@ -1188,7 +1188,7 @@
         <v>-0.3370876661314756</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.280049867014749</v>
+        <v>-0.2800498670147488</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.3365438107181498</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6774410903642836</v>
+        <v>-0.6669480699865258</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7631225486871874</v>
+        <v>-0.7691018205706605</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4862562784804014</v>
+        <v>-0.4505593256924658</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5188082870859805</v>
+        <v>-0.5163153422977661</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5243045748504773</v>
+        <v>-0.5326284201436481</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4614971716871435</v>
+        <v>-0.4556891037514362</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.498721025978939</v>
+        <v>-0.5269966823445499</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5608660807924848</v>
+        <v>-0.5505282803697963</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3943659062626285</v>
+        <v>-0.4209023515338113</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.03059677935296152</v>
+        <v>0.06842300723884048</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1603602050146024</v>
+        <v>-0.2252903377425294</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3336117952747842</v>
+        <v>0.39436833444805</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.04845430392485482</v>
+        <v>-0.05719602662459786</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.06686748251273623</v>
+        <v>-0.05894509372479077</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.01779083684835172</v>
+        <v>-0.02320020879218863</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.09927153818230139</v>
+        <v>-0.1151030010743713</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2024263403044766</v>
+        <v>-0.1689007510671446</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.0007494087311230107</v>
+        <v>-0.02316249718061562</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.844219090000137</v>
+        <v>-4.797662646114973</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.692364022912458</v>
+        <v>-5.423432069601352</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.303192229566065</v>
+        <v>-3.174490435945397</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.220839516423061</v>
+        <v>-2.774537360542607</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-6.026546159187849</v>
+        <v>-6.474378612091726</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.920882061808032</v>
+        <v>-4.00069299962786</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.284427709384696</v>
+        <v>-3.347856928592329</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-5.353559226352048</v>
+        <v>-5.260890867181808</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.249424343510443</v>
+        <v>-3.128886810707604</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-1.420523934863771</v>
+        <v>-1.309553946211055</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.449453971151168</v>
+        <v>-2.135766101001503</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3328581155298465</v>
+        <v>0.5128730339753385</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.384419412112837</v>
+        <v>2.938129985245326</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.9949394899678097</v>
+        <v>-1.296888955128521</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9962861023838133</v>
+        <v>0.7229037332969335</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.01142340650839376</v>
+        <v>0.02264055660126682</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.968293310693435</v>
+        <v>-2.185995561444641</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.02782598764371918</v>
+        <v>-0.04119457444247727</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.724716738807392</v>
+        <v>-0.7280170831988471</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.8288900994931629</v>
+        <v>-0.8280446178555076</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4951693505973619</v>
+        <v>-0.4950920340036312</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2651896080161174</v>
+        <v>-0.2294711042948763</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4962605237893566</v>
+        <v>-0.5192781338578379</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3159002139457535</v>
+        <v>-0.3165698032609257</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3621213382692073</v>
+        <v>-0.3687931309371109</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5742623552482791</v>
+        <v>-0.5582082969838311</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3391438926419158</v>
+        <v>-0.3320615865524176</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.2807682184708624</v>
+        <v>-0.2624363194103257</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.4794739044768097</v>
+        <v>-0.4596213490456733</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.07737001961803537</v>
+        <v>0.1287387766100213</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2533163055105399</v>
+        <v>0.309977978773668</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1010718818052172</v>
+        <v>-0.1268213865348096</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1109219905167662</v>
+        <v>0.07805230843683637</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.007708604230753075</v>
+        <v>-0.002639313935446083</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.2587867159212031</v>
+        <v>-0.2701416472052663</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.007047356355654149</v>
+        <v>-0.00692984818569672</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-3.020901852300623</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-1.249010297613724</v>
+        <v>-1.249010297613723</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.348296140183703</v>
+        <v>-3.443848751029229</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.998319149314496</v>
+        <v>-4.055634885484614</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.204608841488507</v>
+        <v>-2.32009280785612</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.879779217664258</v>
+        <v>-1.875651207289579</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.431869602491739</v>
+        <v>-4.40222720825848</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.639625558088571</v>
+        <v>-2.493032367922682</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.25518511275534</v>
+        <v>-2.272029951880918</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.9361955952099</v>
+        <v>-3.869778901549504</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-2.031273221024965</v>
+        <v>-2.052547492049599</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-1.376116651769798</v>
+        <v>-1.418375806903593</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.135164992883282</v>
+        <v>-2.198219841301793</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.1525835336452309</v>
+        <v>-0.2612349683223202</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.101668265324939</v>
+        <v>1.041368291794716</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.540630726303854</v>
+        <v>-1.624479433434702</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.1093506348030189</v>
+        <v>-0.0199801987536034</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.3869663959621317</v>
+        <v>-0.4029330486185508</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-2.197367613563623</v>
+        <v>-2.183962113169826</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-0.452300987029956</v>
+        <v>-0.4252800824681969</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.3850058294217079</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.159183008618041</v>
+        <v>-0.1591830086180408</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5539507751202574</v>
+        <v>-0.5628530812051477</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6658760606593997</v>
+        <v>-0.666889986454362</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3660655634735325</v>
+        <v>-0.3683317725057837</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.173658491706454</v>
+        <v>-0.173425368232983</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4106780015448092</v>
+        <v>-0.4034667622604546</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2357430706868109</v>
+        <v>-0.2294606275727928</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2717284776127269</v>
+        <v>-0.2735706144167256</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.473572781279174</v>
+        <v>-0.4623677638810587</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2421712038850892</v>
+        <v>-0.2450237750975825</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.2751089437240923</v>
+        <v>-0.2763819705203422</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.435455084199848</v>
+        <v>-0.4290575996992695</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.02708179552065261</v>
+        <v>-0.04272925131881065</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1198390965183224</v>
+        <v>0.1119038255278779</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.1675297953393914</v>
+        <v>-0.1707066627816979</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.01091997457928725</v>
+        <v>-0.001987196440002903</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.05038120799080123</v>
+        <v>-0.0545282608425828</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.2965162630405281</v>
+        <v>-0.2953807658041034</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.05612066539089773</v>
+        <v>-0.0601350733501304</v>
       </c>
     </row>
     <row r="34">
